--- a/Documentazione/GDPRPrj_TempiLavoro/GDPRPrj_TempiLavoro_LucaP.xlsx
+++ b/Documentazione/GDPRPrj_TempiLavoro/GDPRPrj_TempiLavoro_LucaP.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{5A1738D1-1DC6-4819-94F2-D198CF9C3719}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E1D2BD5D-5F90-4820-B2C7-56F2C9662654}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="12">
   <si>
     <t>LucaP</t>
   </si>
@@ -59,7 +59,10 @@
     <t>Tempo (min)</t>
   </si>
   <si>
-    <t>Ricerca Info</t>
+    <t>Ricerche esempi</t>
+  </si>
+  <si>
+    <t>Ricerca info</t>
   </si>
 </sst>
 </file>
@@ -118,7 +121,7 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CD855A81-C244-4352-8941-7766EBFB1D6A}" name="Tabella1" displayName="Tabella1" ref="E1:I1048576" totalsRowShown="0">
   <autoFilter ref="E1:I1048576" xr:uid="{7A908729-E9EE-4718-9492-1EDAA8DA7722}"/>
-  <sortState ref="E2:I14">
+  <sortState ref="E2:I15">
     <sortCondition ref="H1:H1048576"/>
   </sortState>
   <tableColumns count="5">
@@ -395,10 +398,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="E1:I14"/>
+  <dimension ref="E1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -431,7 +434,7 @@
         <v>5</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H2" s="1">
         <v>43423</v>
@@ -618,13 +621,13 @@
         <v>7</v>
       </c>
       <c r="G13" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H13" s="1">
-        <v>43483</v>
+        <v>43482</v>
       </c>
       <c r="I13">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="5:9" x14ac:dyDescent="0.25">
@@ -632,15 +635,32 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="1">
+        <v>43483</v>
+      </c>
+      <c r="I14">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F15" t="s">
         <v>5</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G15" t="s">
         <v>6</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H15" s="1">
         <v>43484</v>
       </c>
-      <c r="I14">
+      <c r="I15">
         <v>10</v>
       </c>
     </row>

--- a/Documentazione/GDPRPrj_TempiLavoro/GDPRPrj_TempiLavoro_LucaP.xlsx
+++ b/Documentazione/GDPRPrj_TempiLavoro/GDPRPrj_TempiLavoro_LucaP.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E1D2BD5D-5F90-4820-B2C7-56F2C9662654}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22FCA85A-2163-405C-A538-03726DB3AEFA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,17 +17,22 @@
     <definedName name="Progetto">Foglio1!$B:$B</definedName>
     <definedName name="Tempo">Foglio1!$G:$G</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="14">
   <si>
     <t>LucaP</t>
   </si>
@@ -63,6 +68,12 @@
   </si>
   <si>
     <t>Ricerca info</t>
+  </si>
+  <si>
+    <t>XAMPP</t>
+  </si>
+  <si>
+    <t>Form e PHP</t>
   </si>
 </sst>
 </file>
@@ -398,10 +409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="E1:I15"/>
+  <dimension ref="E1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -664,6 +675,40 @@
         <v>10</v>
       </c>
     </row>
+    <row r="16" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="1">
+        <v>43492</v>
+      </c>
+      <c r="I16">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F17" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" s="1">
+        <v>43493</v>
+      </c>
+      <c r="I17">
+        <v>120</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/Documentazione/GDPRPrj_TempiLavoro/GDPRPrj_TempiLavoro_LucaP.xlsx
+++ b/Documentazione/GDPRPrj_TempiLavoro/GDPRPrj_TempiLavoro_LucaP.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22FCA85A-2163-405C-A538-03726DB3AEFA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EE5AB78-74F1-4A4D-B8D9-1FAAB378482A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="15">
   <si>
     <t>LucaP</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Form e PHP</t>
+  </si>
+  <si>
+    <t>PHP</t>
   </si>
 </sst>
 </file>
@@ -409,10 +412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="E1:I17"/>
+  <dimension ref="E1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -709,6 +712,23 @@
         <v>120</v>
       </c>
     </row>
+    <row r="18" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>0</v>
+      </c>
+      <c r="F18" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" s="1">
+        <v>43495</v>
+      </c>
+      <c r="I18">
+        <v>120</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/Documentazione/GDPRPrj_TempiLavoro/GDPRPrj_TempiLavoro_LucaP.xlsx
+++ b/Documentazione/GDPRPrj_TempiLavoro/GDPRPrj_TempiLavoro_LucaP.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EE5AB78-74F1-4A4D-B8D9-1FAAB378482A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96DEE108-2E8D-4F4C-8162-F9D16A96ADB0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="16">
   <si>
     <t>LucaP</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t>PHP</t>
+  </si>
+  <si>
+    <t>Reg. Utente</t>
   </si>
 </sst>
 </file>
@@ -412,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="E1:I18"/>
+  <dimension ref="E1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -729,6 +732,23 @@
         <v>120</v>
       </c>
     </row>
+    <row r="19" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F19" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="1">
+        <v>43496</v>
+      </c>
+      <c r="I19">
+        <v>120</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/Documentazione/GDPRPrj_TempiLavoro/GDPRPrj_TempiLavoro_LucaP.xlsx
+++ b/Documentazione/GDPRPrj_TempiLavoro/GDPRPrj_TempiLavoro_LucaP.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96DEE108-2E8D-4F4C-8162-F9D16A96ADB0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12C1A1F4-1090-4937-86C4-BE75A0034158}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="17">
   <si>
     <t>LucaP</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>Reg. Utente</t>
+  </si>
+  <si>
+    <t>HomePage</t>
   </si>
 </sst>
 </file>
@@ -415,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="E1:I19"/>
+  <dimension ref="E1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -749,6 +752,23 @@
         <v>120</v>
       </c>
     </row>
+    <row r="20" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>0</v>
+      </c>
+      <c r="F20" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" s="1">
+        <v>43497</v>
+      </c>
+      <c r="I20">
+        <v>130</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/Documentazione/GDPRPrj_TempiLavoro/GDPRPrj_TempiLavoro_LucaP.xlsx
+++ b/Documentazione/GDPRPrj_TempiLavoro/GDPRPrj_TempiLavoro_LucaP.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12C1A1F4-1090-4937-86C4-BE75A0034158}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED001AF1-83C8-4349-BE90-287380378631}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="17">
   <si>
     <t>LucaP</t>
   </si>
@@ -418,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="E1:I20"/>
+  <dimension ref="E1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -769,6 +769,23 @@
         <v>130</v>
       </c>
     </row>
+    <row r="21" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>0</v>
+      </c>
+      <c r="F21" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21" t="s">
+        <v>6</v>
+      </c>
+      <c r="H21" s="1">
+        <v>43498</v>
+      </c>
+      <c r="I21">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/Documentazione/GDPRPrj_TempiLavoro/GDPRPrj_TempiLavoro_LucaP.xlsx
+++ b/Documentazione/GDPRPrj_TempiLavoro/GDPRPrj_TempiLavoro_LucaP.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED001AF1-83C8-4349-BE90-287380378631}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FE94EAE-EB6D-4610-8555-3C57D6AB1B9E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="17">
   <si>
     <t>LucaP</t>
   </si>
@@ -418,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="E1:I21"/>
+  <dimension ref="E1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -786,6 +786,23 @@
         <v>30</v>
       </c>
     </row>
+    <row r="22" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>0</v>
+      </c>
+      <c r="F22" t="s">
+        <v>7</v>
+      </c>
+      <c r="G22" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22" s="1">
+        <v>43509</v>
+      </c>
+      <c r="I22">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/Documentazione/GDPRPrj_TempiLavoro/GDPRPrj_TempiLavoro_LucaP.xlsx
+++ b/Documentazione/GDPRPrj_TempiLavoro/GDPRPrj_TempiLavoro_LucaP.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FE94EAE-EB6D-4610-8555-3C57D6AB1B9E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10399FAB-CF1B-4DF1-96F2-0E607FB20893}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="17">
   <si>
     <t>LucaP</t>
   </si>
@@ -418,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="E1:I22"/>
+  <dimension ref="E1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -803,6 +803,23 @@
         <v>100</v>
       </c>
     </row>
+    <row r="23" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>0</v>
+      </c>
+      <c r="F23" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23" t="s">
+        <v>6</v>
+      </c>
+      <c r="H23" s="1">
+        <v>43517</v>
+      </c>
+      <c r="I23">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/Documentazione/GDPRPrj_TempiLavoro/GDPRPrj_TempiLavoro_LucaP.xlsx
+++ b/Documentazione/GDPRPrj_TempiLavoro/GDPRPrj_TempiLavoro_LucaP.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10399FAB-CF1B-4DF1-96F2-0E607FB20893}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D678ABD-DCB9-49FF-8FBB-69D408F6D8D0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="17">
   <si>
     <t>LucaP</t>
   </si>
@@ -418,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="E1:I23"/>
+  <dimension ref="E1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -820,6 +820,40 @@
         <v>10</v>
       </c>
     </row>
+    <row r="24" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>0</v>
+      </c>
+      <c r="F24" t="s">
+        <v>7</v>
+      </c>
+      <c r="G24" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" s="1">
+        <v>43520</v>
+      </c>
+      <c r="I24">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E25" t="s">
+        <v>0</v>
+      </c>
+      <c r="F25" t="s">
+        <v>7</v>
+      </c>
+      <c r="G25" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25" s="1">
+        <v>43521</v>
+      </c>
+      <c r="I25">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/Documentazione/GDPRPrj_TempiLavoro/GDPRPrj_TempiLavoro_LucaP.xlsx
+++ b/Documentazione/GDPRPrj_TempiLavoro/GDPRPrj_TempiLavoro_LucaP.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D678ABD-DCB9-49FF-8FBB-69D408F6D8D0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07071D35-6625-4CB9-BE83-6F85D9350E94}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="17">
   <si>
     <t>LucaP</t>
   </si>
@@ -418,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="E1:I25"/>
+  <dimension ref="E1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -854,6 +854,23 @@
         <v>40</v>
       </c>
     </row>
+    <row r="26" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
+        <v>0</v>
+      </c>
+      <c r="F26" t="s">
+        <v>7</v>
+      </c>
+      <c r="G26" t="s">
+        <v>8</v>
+      </c>
+      <c r="H26" s="1">
+        <v>43523</v>
+      </c>
+      <c r="I26">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/Documentazione/GDPRPrj_TempiLavoro/GDPRPrj_TempiLavoro_LucaP.xlsx
+++ b/Documentazione/GDPRPrj_TempiLavoro/GDPRPrj_TempiLavoro_LucaP.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07071D35-6625-4CB9-BE83-6F85D9350E94}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAEFA1E5-1DF9-4534-ABAD-984F4AF92164}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="17">
   <si>
     <t>LucaP</t>
   </si>
@@ -418,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="E1:I26"/>
+  <dimension ref="E1:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -871,6 +871,23 @@
         <v>10</v>
       </c>
     </row>
+    <row r="27" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>7</v>
+      </c>
+      <c r="G27" t="s">
+        <v>16</v>
+      </c>
+      <c r="H27" s="1">
+        <v>43523</v>
+      </c>
+      <c r="I27">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/Documentazione/GDPRPrj_TempiLavoro/GDPRPrj_TempiLavoro_LucaP.xlsx
+++ b/Documentazione/GDPRPrj_TempiLavoro/GDPRPrj_TempiLavoro_LucaP.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAEFA1E5-1DF9-4534-ABAD-984F4AF92164}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F5CCC7B-F04C-4A5A-8867-6CC35D67847D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="17">
   <si>
     <t>LucaP</t>
   </si>
@@ -418,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="E1:I27"/>
+  <dimension ref="E1:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -888,6 +888,23 @@
         <v>60</v>
       </c>
     </row>
+    <row r="28" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
+        <v>0</v>
+      </c>
+      <c r="F28" t="s">
+        <v>7</v>
+      </c>
+      <c r="G28" t="s">
+        <v>13</v>
+      </c>
+      <c r="H28" s="1">
+        <v>43525</v>
+      </c>
+      <c r="I28">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/Documentazione/GDPRPrj_TempiLavoro/GDPRPrj_TempiLavoro_LucaP.xlsx
+++ b/Documentazione/GDPRPrj_TempiLavoro/GDPRPrj_TempiLavoro_LucaP.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F5CCC7B-F04C-4A5A-8867-6CC35D67847D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D38DC911-DA2F-465D-BC0E-A3119C14FB1B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="18">
   <si>
     <t>LucaP</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>HomePage</t>
+  </si>
+  <si>
+    <t>DB e Doc</t>
   </si>
 </sst>
 </file>
@@ -418,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="E1:I28"/>
+  <dimension ref="E1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -905,6 +908,23 @@
         <v>30</v>
       </c>
     </row>
+    <row r="29" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E29" t="s">
+        <v>0</v>
+      </c>
+      <c r="F29" t="s">
+        <v>7</v>
+      </c>
+      <c r="G29" t="s">
+        <v>17</v>
+      </c>
+      <c r="H29" s="1">
+        <v>43530</v>
+      </c>
+      <c r="I29">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/Documentazione/GDPRPrj_TempiLavoro/GDPRPrj_TempiLavoro_LucaP.xlsx
+++ b/Documentazione/GDPRPrj_TempiLavoro/GDPRPrj_TempiLavoro_LucaP.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D38DC911-DA2F-465D-BC0E-A3119C14FB1B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -17,7 +16,7 @@
     <definedName name="Progetto">Foglio1!$B:$B</definedName>
     <definedName name="Tempo">Foglio1!$G:$G</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="19">
   <si>
     <t>LucaP</t>
   </si>
@@ -86,12 +85,15 @@
   </si>
   <si>
     <t>DB e Doc</t>
+  </si>
+  <si>
+    <t>PHP to JS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -142,17 +144,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CD855A81-C244-4352-8941-7766EBFB1D6A}" name="Tabella1" displayName="Tabella1" ref="E1:I1048576" totalsRowShown="0">
-  <autoFilter ref="E1:I1048576" xr:uid="{7A908729-E9EE-4718-9492-1EDAA8DA7722}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabella1" displayName="Tabella1" ref="E1:I1048576" totalsRowShown="0">
+  <autoFilter ref="E1:I1048576"/>
   <sortState ref="E2:I15">
     <sortCondition ref="H1:H1048576"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="3" xr3:uid="{2DC30C39-59B9-4713-8159-3051D2B47652}" name="Persona"/>
-    <tableColumn id="4" xr3:uid="{62A38111-220C-4C01-B113-2B8D0960A9BD}" name="Progetto"/>
-    <tableColumn id="1" xr3:uid="{FAB7A0BA-4742-4D08-939D-37C27539C596}" name="Attività"/>
-    <tableColumn id="2" xr3:uid="{20FEBF9A-D56C-4A74-8AE9-05ECD7560DBB}" name="Data"/>
-    <tableColumn id="5" xr3:uid="{59ED0FF4-4529-434B-A972-2C1B87CBE876}" name="Tempo (min)"/>
+    <tableColumn id="3" name="Persona"/>
+    <tableColumn id="4" name="Progetto"/>
+    <tableColumn id="1" name="Attività"/>
+    <tableColumn id="2" name="Data"/>
+    <tableColumn id="5" name="Tempo (min)"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -420,11 +422,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="E1:I29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="E1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -925,6 +927,40 @@
         <v>30</v>
       </c>
     </row>
+    <row r="30" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E30" t="s">
+        <v>0</v>
+      </c>
+      <c r="F30" t="s">
+        <v>7</v>
+      </c>
+      <c r="G30" t="s">
+        <v>18</v>
+      </c>
+      <c r="H30" s="1">
+        <v>43538</v>
+      </c>
+      <c r="I30">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E31" t="s">
+        <v>0</v>
+      </c>
+      <c r="F31" t="s">
+        <v>7</v>
+      </c>
+      <c r="G31" t="s">
+        <v>8</v>
+      </c>
+      <c r="H31" s="1">
+        <v>43539</v>
+      </c>
+      <c r="I31">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/Documentazione/GDPRPrj_TempiLavoro/GDPRPrj_TempiLavoro_LucaP.xlsx
+++ b/Documentazione/GDPRPrj_TempiLavoro/GDPRPrj_TempiLavoro_LucaP.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABF2ABAB-E00D-46AE-AC32-54A9B73D2300}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -21,17 +22,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="20">
   <si>
     <t>LucaP</t>
   </si>
@@ -88,12 +84,15 @@
   </si>
   <si>
     <t>PHP to JS</t>
+  </si>
+  <si>
+    <t>Full Calendar</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -144,17 +143,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabella1" displayName="Tabella1" ref="E1:I1048576" totalsRowShown="0">
-  <autoFilter ref="E1:I1048576"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabella1" displayName="Tabella1" ref="E1:I1048576" totalsRowShown="0">
+  <autoFilter ref="E1:I1048576" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState ref="E2:I15">
     <sortCondition ref="H1:H1048576"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="3" name="Persona"/>
-    <tableColumn id="4" name="Progetto"/>
-    <tableColumn id="1" name="Attività"/>
-    <tableColumn id="2" name="Data"/>
-    <tableColumn id="5" name="Tempo (min)"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Persona"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Progetto"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Attività"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Data"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Tempo (min)"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -422,11 +421,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E1:I31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="E1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -961,6 +960,40 @@
         <v>50</v>
       </c>
     </row>
+    <row r="32" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E32" t="s">
+        <v>0</v>
+      </c>
+      <c r="F32" t="s">
+        <v>7</v>
+      </c>
+      <c r="G32" t="s">
+        <v>19</v>
+      </c>
+      <c r="H32" s="1">
+        <v>43544</v>
+      </c>
+      <c r="I32">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="33" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E33" t="s">
+        <v>0</v>
+      </c>
+      <c r="F33" t="s">
+        <v>7</v>
+      </c>
+      <c r="G33" t="s">
+        <v>8</v>
+      </c>
+      <c r="H33" s="1">
+        <v>43543</v>
+      </c>
+      <c r="I33">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/Documentazione/GDPRPrj_TempiLavoro/GDPRPrj_TempiLavoro_LucaP.xlsx
+++ b/Documentazione/GDPRPrj_TempiLavoro/GDPRPrj_TempiLavoro_LucaP.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABF2ABAB-E00D-46AE-AC32-54A9B73D2300}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B65D8B8-1E93-4770-A735-FC7DA3C09553}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,17 +17,22 @@
     <definedName name="Progetto">Foglio1!$B:$B</definedName>
     <definedName name="Tempo">Foglio1!$G:$G</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="21">
   <si>
     <t>LucaP</t>
   </si>
@@ -87,6 +92,9 @@
   </si>
   <si>
     <t>Full Calendar</t>
+  </si>
+  <si>
+    <t>Totale:</t>
   </si>
 </sst>
 </file>
@@ -422,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="E1:I33"/>
+  <dimension ref="E1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -994,6 +1002,32 @@
         <v>60</v>
       </c>
     </row>
+    <row r="34" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E34" t="s">
+        <v>0</v>
+      </c>
+      <c r="F34" t="s">
+        <v>7</v>
+      </c>
+      <c r="G34" t="s">
+        <v>8</v>
+      </c>
+      <c r="H34" s="1">
+        <v>43546</v>
+      </c>
+      <c r="I34">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="H36" t="s">
+        <v>20</v>
+      </c>
+      <c r="I36">
+        <f>SUBTOTAL(109,I2:I35)</f>
+        <v>2040</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/Documentazione/GDPRPrj_TempiLavoro/GDPRPrj_TempiLavoro_LucaP.xlsx
+++ b/Documentazione/GDPRPrj_TempiLavoro/GDPRPrj_TempiLavoro_LucaP.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B65D8B8-1E93-4770-A735-FC7DA3C09553}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDCFF374-D319-4F85-B6E5-15993440F428}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="21">
   <si>
     <t>LucaP</t>
   </si>
@@ -433,7 +433,7 @@
   <dimension ref="E1:I36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1019,13 +1019,30 @@
         <v>70</v>
       </c>
     </row>
+    <row r="35" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E35" t="s">
+        <v>0</v>
+      </c>
+      <c r="F35" t="s">
+        <v>7</v>
+      </c>
+      <c r="G35" t="s">
+        <v>8</v>
+      </c>
+      <c r="H35" s="1">
+        <v>43552</v>
+      </c>
+      <c r="I35">
+        <v>30</v>
+      </c>
+    </row>
     <row r="36" spans="5:9" x14ac:dyDescent="0.25">
       <c r="H36" t="s">
         <v>20</v>
       </c>
       <c r="I36">
         <f>SUBTOTAL(109,I2:I35)</f>
-        <v>2040</v>
+        <v>2070</v>
       </c>
     </row>
   </sheetData>

--- a/Documentazione/GDPRPrj_TempiLavoro/GDPRPrj_TempiLavoro_LucaP.xlsx
+++ b/Documentazione/GDPRPrj_TempiLavoro/GDPRPrj_TempiLavoro_LucaP.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDCFF374-D319-4F85-B6E5-15993440F428}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DABAEBCF-DB36-4E8F-8DF8-C4D6817094A9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="21">
   <si>
     <t>LucaP</t>
   </si>
@@ -430,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="E1:I36"/>
+  <dimension ref="E1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1037,12 +1037,29 @@
       </c>
     </row>
     <row r="36" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="H36" t="s">
+      <c r="E36" t="s">
+        <v>0</v>
+      </c>
+      <c r="F36" t="s">
+        <v>7</v>
+      </c>
+      <c r="G36" t="s">
+        <v>13</v>
+      </c>
+      <c r="H36" s="1">
+        <v>43553</v>
+      </c>
+      <c r="I36">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="41" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="H41" t="s">
         <v>20</v>
       </c>
-      <c r="I36">
-        <f>SUBTOTAL(109,I2:I35)</f>
-        <v>2070</v>
+      <c r="I41">
+        <f>SUBTOTAL(109,I2:I36)</f>
+        <v>2260</v>
       </c>
     </row>
   </sheetData>

--- a/Documentazione/GDPRPrj_TempiLavoro/GDPRPrj_TempiLavoro_LucaP.xlsx
+++ b/Documentazione/GDPRPrj_TempiLavoro/GDPRPrj_TempiLavoro_LucaP.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DABAEBCF-DB36-4E8F-8DF8-C4D6817094A9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8055"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -17,7 +16,7 @@
     <definedName name="Progetto">Foglio1!$B:$B</definedName>
     <definedName name="Tempo">Foglio1!$G:$G</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="22">
   <si>
     <t>LucaP</t>
   </si>
@@ -95,12 +94,15 @@
   </si>
   <si>
     <t>Totale:</t>
+  </si>
+  <si>
+    <t>E-R</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -151,17 +153,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabella1" displayName="Tabella1" ref="E1:I1048576" totalsRowShown="0">
-  <autoFilter ref="E1:I1048576" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabella1" displayName="Tabella1" ref="E1:I1048576" totalsRowShown="0">
+  <autoFilter ref="E1:I1048576"/>
   <sortState ref="E2:I15">
     <sortCondition ref="H1:H1048576"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Persona"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Progetto"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Attività"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Data"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Tempo (min)"/>
+    <tableColumn id="3" name="Persona"/>
+    <tableColumn id="4" name="Progetto"/>
+    <tableColumn id="1" name="Attività"/>
+    <tableColumn id="2" name="Data"/>
+    <tableColumn id="5" name="Tempo (min)"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -429,11 +431,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1053,13 +1055,47 @@
         <v>190</v>
       </c>
     </row>
+    <row r="37" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E37" t="s">
+        <v>0</v>
+      </c>
+      <c r="F37" t="s">
+        <v>5</v>
+      </c>
+      <c r="G37" t="s">
+        <v>6</v>
+      </c>
+      <c r="H37" s="1">
+        <v>43558</v>
+      </c>
+      <c r="I37">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E38" t="s">
+        <v>0</v>
+      </c>
+      <c r="F38" t="s">
+        <v>7</v>
+      </c>
+      <c r="G38" t="s">
+        <v>21</v>
+      </c>
+      <c r="H38" s="1">
+        <v>43558</v>
+      </c>
+      <c r="I38">
+        <v>30</v>
+      </c>
+    </row>
     <row r="41" spans="5:9" x14ac:dyDescent="0.25">
       <c r="H41" t="s">
         <v>20</v>
       </c>
       <c r="I41">
-        <f>SUBTOTAL(109,I2:I36)</f>
-        <v>2260</v>
+        <f>SUBTOTAL(109,I2:I40)</f>
+        <v>2310</v>
       </c>
     </row>
   </sheetData>

--- a/Documentazione/GDPRPrj_TempiLavoro/GDPRPrj_TempiLavoro_LucaP.xlsx
+++ b/Documentazione/GDPRPrj_TempiLavoro/GDPRPrj_TempiLavoro_LucaP.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE2CF9C5-5AE2-49EB-AE9F-0E62B758B1BB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8055"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -16,7 +17,7 @@
     <definedName name="Progetto">Foglio1!$B:$B</definedName>
     <definedName name="Tempo">Foglio1!$G:$G</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="23">
   <si>
     <t>LucaP</t>
   </si>
@@ -97,12 +98,15 @@
   </si>
   <si>
     <t>E-R</t>
+  </si>
+  <si>
+    <t>Db, E-R</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -153,17 +157,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabella1" displayName="Tabella1" ref="E1:I1048576" totalsRowShown="0">
-  <autoFilter ref="E1:I1048576"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabella1" displayName="Tabella1" ref="E1:I1048576" totalsRowShown="0">
+  <autoFilter ref="E1:I1048576" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState ref="E2:I15">
     <sortCondition ref="H1:H1048576"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="3" name="Persona"/>
-    <tableColumn id="4" name="Progetto"/>
-    <tableColumn id="1" name="Attività"/>
-    <tableColumn id="2" name="Data"/>
-    <tableColumn id="5" name="Tempo (min)"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Persona"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Progetto"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Attività"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Data"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Tempo (min)"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -431,11 +435,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="E1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I41" sqref="I41"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1089,13 +1093,30 @@
         <v>30</v>
       </c>
     </row>
+    <row r="39" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E39" t="s">
+        <v>0</v>
+      </c>
+      <c r="F39" t="s">
+        <v>7</v>
+      </c>
+      <c r="G39" t="s">
+        <v>22</v>
+      </c>
+      <c r="H39" s="1">
+        <v>43558</v>
+      </c>
+      <c r="I39">
+        <v>50</v>
+      </c>
+    </row>
     <row r="41" spans="5:9" x14ac:dyDescent="0.25">
       <c r="H41" t="s">
         <v>20</v>
       </c>
       <c r="I41">
         <f>SUBTOTAL(109,I2:I40)</f>
-        <v>2310</v>
+        <v>2360</v>
       </c>
     </row>
   </sheetData>

--- a/Documentazione/GDPRPrj_TempiLavoro/GDPRPrj_TempiLavoro_LucaP.xlsx
+++ b/Documentazione/GDPRPrj_TempiLavoro/GDPRPrj_TempiLavoro_LucaP.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE2CF9C5-5AE2-49EB-AE9F-0E62B758B1BB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14BFBE00-E231-4C82-98A6-7F050202F110}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="24">
   <si>
     <t>LucaP</t>
   </si>
@@ -101,6 +101,9 @@
   </si>
   <si>
     <t>Db, E-R</t>
+  </si>
+  <si>
+    <t>Db</t>
   </si>
 </sst>
 </file>
@@ -439,7 +442,7 @@
   <dimension ref="E1:I41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+      <selection activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1110,13 +1113,30 @@
         <v>50</v>
       </c>
     </row>
+    <row r="40" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E40" t="s">
+        <v>0</v>
+      </c>
+      <c r="F40" t="s">
+        <v>7</v>
+      </c>
+      <c r="G40" t="s">
+        <v>23</v>
+      </c>
+      <c r="H40" s="1">
+        <v>43558</v>
+      </c>
+      <c r="I40">
+        <v>60</v>
+      </c>
+    </row>
     <row r="41" spans="5:9" x14ac:dyDescent="0.25">
       <c r="H41" t="s">
         <v>20</v>
       </c>
       <c r="I41">
         <f>SUBTOTAL(109,I2:I40)</f>
-        <v>2360</v>
+        <v>2420</v>
       </c>
     </row>
   </sheetData>

--- a/Documentazione/GDPRPrj_TempiLavoro/GDPRPrj_TempiLavoro_LucaP.xlsx
+++ b/Documentazione/GDPRPrj_TempiLavoro/GDPRPrj_TempiLavoro_LucaP.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14BFBE00-E231-4C82-98A6-7F050202F110}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72961767-194D-47C6-9DBA-55D1199FC0BB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="24">
   <si>
     <t>LucaP</t>
   </si>
@@ -439,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="E1:I41"/>
+  <dimension ref="E1:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="I42" sqref="I42"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1131,12 +1131,29 @@
       </c>
     </row>
     <row r="41" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="H41" t="s">
+      <c r="E41" t="s">
+        <v>0</v>
+      </c>
+      <c r="F41" t="s">
+        <v>7</v>
+      </c>
+      <c r="G41" t="s">
+        <v>8</v>
+      </c>
+      <c r="H41" s="1">
+        <v>43559</v>
+      </c>
+      <c r="I41">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="51" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H51" t="s">
         <v>20</v>
       </c>
-      <c r="I41">
-        <f>SUBTOTAL(109,I2:I40)</f>
-        <v>2420</v>
+      <c r="I51">
+        <f>SUBTOTAL(109,I2:I50)</f>
+        <v>2570</v>
       </c>
     </row>
   </sheetData>

--- a/Documentazione/GDPRPrj_TempiLavoro/GDPRPrj_TempiLavoro_LucaP.xlsx
+++ b/Documentazione/GDPRPrj_TempiLavoro/GDPRPrj_TempiLavoro_LucaP.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72961767-194D-47C6-9DBA-55D1199FC0BB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54458341-7E0E-48C7-80DD-3D687E135895}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="14">
   <si>
     <t>LucaP</t>
   </si>
@@ -64,46 +64,16 @@
     <t>Tempo (min)</t>
   </si>
   <si>
-    <t>Ricerche esempi</t>
-  </si>
-  <si>
-    <t>Ricerca info</t>
-  </si>
-  <si>
-    <t>XAMPP</t>
-  </si>
-  <si>
-    <t>Form e PHP</t>
-  </si>
-  <si>
-    <t>PHP</t>
-  </si>
-  <si>
-    <t>Reg. Utente</t>
-  </si>
-  <si>
-    <t>HomePage</t>
-  </si>
-  <si>
-    <t>DB e Doc</t>
-  </si>
-  <si>
-    <t>PHP to JS</t>
-  </si>
-  <si>
-    <t>Full Calendar</t>
-  </si>
-  <si>
     <t>Totale:</t>
   </si>
   <si>
-    <t>E-R</t>
-  </si>
-  <si>
-    <t>Db, E-R</t>
-  </si>
-  <si>
-    <t>Db</t>
+    <t>Ricerche</t>
+  </si>
+  <si>
+    <t>Codice</t>
+  </si>
+  <si>
+    <t>Database</t>
   </si>
 </sst>
 </file>
@@ -441,8 +411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="E1:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="I41" sqref="I41"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -662,7 +632,7 @@
         <v>7</v>
       </c>
       <c r="G13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H13" s="1">
         <v>43482</v>
@@ -730,7 +700,7 @@
         <v>7</v>
       </c>
       <c r="G17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H17" s="1">
         <v>43493</v>
@@ -747,7 +717,7 @@
         <v>7</v>
       </c>
       <c r="G18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H18" s="1">
         <v>43495</v>
@@ -764,7 +734,7 @@
         <v>7</v>
       </c>
       <c r="G19" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H19" s="1">
         <v>43496</v>
@@ -781,7 +751,7 @@
         <v>7</v>
       </c>
       <c r="G20" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H20" s="1">
         <v>43497</v>
@@ -849,7 +819,7 @@
         <v>7</v>
       </c>
       <c r="G24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H24" s="1">
         <v>43520</v>
@@ -866,7 +836,7 @@
         <v>7</v>
       </c>
       <c r="G25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H25" s="1">
         <v>43521</v>
@@ -900,7 +870,7 @@
         <v>7</v>
       </c>
       <c r="G27" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H27" s="1">
         <v>43523</v>
@@ -917,7 +887,7 @@
         <v>7</v>
       </c>
       <c r="G28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H28" s="1">
         <v>43525</v>
@@ -934,7 +904,7 @@
         <v>7</v>
       </c>
       <c r="G29" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H29" s="1">
         <v>43530</v>
@@ -951,7 +921,7 @@
         <v>7</v>
       </c>
       <c r="G30" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H30" s="1">
         <v>43538</v>
@@ -985,7 +955,7 @@
         <v>7</v>
       </c>
       <c r="G32" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="H32" s="1">
         <v>43544</v>
@@ -1053,7 +1023,7 @@
         <v>7</v>
       </c>
       <c r="G36" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H36" s="1">
         <v>43553</v>
@@ -1087,7 +1057,7 @@
         <v>7</v>
       </c>
       <c r="G38" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="H38" s="1">
         <v>43558</v>
@@ -1104,7 +1074,7 @@
         <v>7</v>
       </c>
       <c r="G39" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="H39" s="1">
         <v>43558</v>
@@ -1121,7 +1091,7 @@
         <v>7</v>
       </c>
       <c r="G40" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="H40" s="1">
         <v>43558</v>
@@ -1149,7 +1119,7 @@
     </row>
     <row r="51" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H51" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="I51">
         <f>SUBTOTAL(109,I2:I50)</f>

--- a/Documentazione/GDPRPrj_TempiLavoro/GDPRPrj_TempiLavoro_LucaP.xlsx
+++ b/Documentazione/GDPRPrj_TempiLavoro/GDPRPrj_TempiLavoro_LucaP.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54458341-7E0E-48C7-80DD-3D687E135895}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B52334CB-CEAD-45D1-97DF-9ED30159B193}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="14">
   <si>
     <t>LucaP</t>
   </si>
@@ -412,7 +412,7 @@
   <dimension ref="E1:I51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+      <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1117,13 +1117,30 @@
         <v>150</v>
       </c>
     </row>
+    <row r="42" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E42" t="s">
+        <v>0</v>
+      </c>
+      <c r="F42" t="s">
+        <v>7</v>
+      </c>
+      <c r="G42" t="s">
+        <v>8</v>
+      </c>
+      <c r="H42" s="1">
+        <v>43565</v>
+      </c>
+      <c r="I42">
+        <v>40</v>
+      </c>
+    </row>
     <row r="51" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H51" t="s">
         <v>10</v>
       </c>
       <c r="I51">
         <f>SUBTOTAL(109,I2:I50)</f>
-        <v>2570</v>
+        <v>2610</v>
       </c>
     </row>
   </sheetData>
